--- a/datafiles/enduserdata.xlsx
+++ b/datafiles/enduserdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{4C499F13-053C-40F8-A460-9BF713B56435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950968C2-BB09-47F0-BD2A-65AEC3B335EF}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{4C499F13-053C-40F8-A460-9BF713B56435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1C44E1-175B-4858-89A9-4F4570BFA0A7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="19">
   <si>
     <t>fName</t>
   </si>
@@ -40,49 +40,13 @@
     <t>sethiya</t>
   </si>
   <si>
-    <t>singh</t>
-  </si>
-  <si>
-    <t>nagpal</t>
-  </si>
-  <si>
-    <t>Soni</t>
-  </si>
-  <si>
-    <t>tripathi</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>Dinesh</t>
   </si>
   <si>
-    <t>Raghav</t>
-  </si>
-  <si>
-    <t>murli</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Navin</t>
-  </si>
-  <si>
     <t>sethiya.dinesh@mailinator.com</t>
-  </si>
-  <si>
-    <t>singh.raghav@mailinator.com</t>
-  </si>
-  <si>
-    <t>nagpal.murli@mailinator.com</t>
-  </si>
-  <si>
-    <t>soni.rakeskh@mailinator.com</t>
-  </si>
-  <si>
-    <t>tripathi.navin@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -448,7 +412,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,12 +432,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -482,72 +446,24 @@
         <v>8008008014</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>8008008015</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8008008016</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>8008008017</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>8008008018</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CBEC7E8F-3BB1-4B0E-AC1B-8994CC99F733}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{5FF46D85-8E0D-47AF-83F6-E62282433E07}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{2C918E47-1040-4B91-B642-7483972EA917}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{53EE9772-77F2-4442-9726-D46605266314}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{B7F70CEF-8317-4052-AE19-7375173C73DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
